--- a/1-) Yeni Urunlerin Sektorleri.xlsx
+++ b/1-) Yeni Urunlerin Sektorleri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Dis-Ticaret-Tekstil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1D2D82F566638804772C4CFD956F3883787DD9B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F1A89D-3E85-488C-A8CB-722DD4C5641E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_1D2D82F566638804772C4C2FD5A8013F797DD9B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E768803-6DE5-4863-9B63-1077FBC32E15}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3990,14 +3990,14 @@
   <dimension ref="A1:G974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="K8:L8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>

--- a/1-) Yeni Urunlerin Sektorleri.xlsx
+++ b/1-) Yeni Urunlerin Sektorleri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Dis-Ticaret-Tekstil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1D2D82F566638804772C4C2FD5A8013F797DD9B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E768803-6DE5-4863-9B63-1077FBC32E15}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1D2D82F566638804772C4C49C5A92C05797DD9B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F222D6F6-E0A7-477D-8259-F53D972CA26B}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="885" windowWidth="12420" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3989,15 +3989,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
